--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,16 +5518,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,16 +5518,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -1604,7 +1604,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,16 +5518,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,16 +5518,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,16 +5518,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incremento de la Autonomía Operacional para Peróxido de Hidrógeno</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/01/2022</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154801158&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
+          <t>Incremento de la Autonomía Operacional para Peróxido de Hidrógeno</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacifico S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>31/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154801158&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Innovación Circular Arauco</t>
+          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Verde Corp SpA</t>
+          <t>Ferrocarril del Pacifico S. A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146940353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PARQUE EOLICO VIENTO SUR</t>
+          <t>Planta Innovación Circular Arauco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arauco Bioenergía S.A</t>
+          <t>Verde Corp SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/04/2019</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142831870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146940353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Vientos del Pacífico</t>
+          <t>PARQUE EOLICO VIENTO SUR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Eólico Vientos del Pacífico SpA</t>
+          <t>Arauco Bioenergía S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/10/2018</t>
+          <t>02/04/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141250028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142831870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Proyecto Eólico Vientos del Pacífico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Parque Eólico Vientos del Pacífico SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9903</v>
+        <v>150000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>30/10/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141250028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Centro de Experimentación para la Producción de Semillas de Recursos Bentónicos, Región del Biobío - Hatchery UCSC</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Universidad Católica de la Santísima Concepción</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>9903</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/10/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132813674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25/07/2017</t>
+          <t>24/10/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132566409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132813674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Centro de Experimentación para la Producción de Semillas de Recursos Bentónicos, Región del Biobío - Hatchery UCSC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Universidad Católica de la Santísima Concepción</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>950</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>25/07/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132566409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Centro de Experimentación para la Producción de Semillas de Recursos Bentónicos, Región del Biobío - Hatchery UCSC"</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Universidad Católica de la Santísima Concepción</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>950</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132458305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Centro de Experimentación para la Producción de Semillas de Recursos Bentónicos, Región del Biobío - Hatchery UCSC</t>
+          <t>"Centro de Experimentación para la Producción de Semillas de Recursos Bentónicos, Región del Biobío - Hatchery UCSC"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>778</v>
+        <v>950</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/02/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132191730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132458305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Fundo La Playa</t>
+          <t>Centro de Experimentación para la Producción de Semillas de Recursos Bentónicos, Región del Biobío - Hatchery UCSC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Universidad Católica de la Santísima Concepción</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1500</v>
+        <v>778</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16/02/2017</t>
+          <t>22/02/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132134144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132191730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Extracción de Áridos, Fundo La Playa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>16/02/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132134144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fortalecimiento del Sistema Eléctrico de la Provincia de Arauco</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>16200</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Fortalecimiento del Sistema Eléctrico de la Provincia de Arauco</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>16200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>19/12/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de almacenamiento de insumos y otros ajustes para autonomía operacional de Planta Arauco</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/07/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129634364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Aumento de capacidad de almacenamiento de insumos y otros ajustes para autonomía operacional de Planta Arauco</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>21/07/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129634364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,40 +1576,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión 1x220 kV, Tubul-Lagunillas</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Parque Eólico Arauco S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15400</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/08/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128495129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos - Cantera Las Corrientes</t>
+          <t>Línea de Alta Tensión 1x220 kV, Tubul-Lagunillas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>Parque Eólico Arauco S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>750</v>
+        <v>15400</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/08/2013</t>
+          <t>22/08/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128433065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128495129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación planta de tratamiento de aguas servidas de Laraquete, Arauco.</t>
+          <t>Extracción y Procesamiento de Áridos - Cantera Las Corrientes</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1829</v>
+        <v>750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/07/2013</t>
+          <t>07/08/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8384988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128433065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>24/07/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8384988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta Härting Aromas</t>
+          <t>Ampliación planta de tratamiento de aguas servidas de Laraquete, Arauco.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2000</v>
+        <v>1829</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/07/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8339914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28/06/2013</t>
+          <t>10/07/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8300500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8339914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>28/06/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8213179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8300500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,30 +1912,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta Härting Aromas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8213179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación planta de tratamiento de aguas servidas de Laraquete, Arauco.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Arauco</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1829</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8076276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Parque eólico Las Peñas</t>
+          <t>Ampliación planta de tratamiento de aguas servidas de Laraquete, Arauco.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Éolico Las Peñas SpA</t>
+          <t>Ilustre Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>1829</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/04/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8029313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8076276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aumento de extracción de áridos, empréstito Molino del Sol.</t>
+          <t>Parque eólico Las Peñas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Constructora Acciona Chile</t>
+          <t>Éolico Las Peñas SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>975</v>
+        <v>20000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28/03/2013</t>
+          <t>08/04/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7982598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8029313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Parque eólico Las Peñas</t>
+          <t>Aumento de extracción de áridos, empréstito Molino del Sol.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FORESTAL R y R LTDA</t>
+          <t>Constructora Acciona Chile</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>20000</v>
+        <v>975</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>28/03/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7973320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7982598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Parque eólico Las Peñas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>FORESTAL R y R LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>706</v>
+        <v>20000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7973320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUMENTO DE EXTRACCIÓN DE ÁRIDOS, EMPRÉSTITOS LOS DURAZNOS Y LOS CASTAÑOS.</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Constructora Acciona Chile</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>975</v>
+        <v>706</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7099383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>AUMENTO DE EXTRACCIÓN DE ÁRIDOS, EMPRÉSTITOS LOS DURAZNOS Y LOS CASTAÑOS.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Constructora Acciona Chile</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>706</v>
+        <v>975</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7099383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aumento de extracción de áridos empréstitos Los Duraznos y Los castaños</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Constructora Acciona Chile</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>975</v>
+        <v>706</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/06/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7013460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS - CANTERA LAS CORRIENTES</t>
+          <t>Aumento de extracción de áridos empréstitos Los Duraznos y Los castaños</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bosques Arauco S.A.</t>
+          <t>Constructora Acciona Chile</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11/06/2012</t>
+          <t>13/06/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7013460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS - CANTERA LAS CORRIENTES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Bosques Arauco S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>11/06/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,40 +2440,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modernización Ampliación Planta Arauco</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>27/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6856586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,40 +2488,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Modernización Ampliación Planta Arauco</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>27/04/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6856586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PROCESOS INDUSTRIALES PLANTA DE AROMAS .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6806063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>AMPLIACION DE PROCESOS INDUSTRIALES PLANTA DE AROMAS .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>13/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6806063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6606959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>15/02/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6606959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,21 +3179,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Parque Eólico Küref .</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Te-Eólica S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"Aumento de Extracción y Procesamiento de Áridos, Empréstito Las Nochas."</t>
+          <t>Parque Eólico Küref .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Constructora Acciona Chile</t>
+          <t>Te-Eólica S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>150000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>24/05/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5645643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Aumento de Extracción y Procesamiento de Áridos, Empréstito Las Nochas."</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Constructora Acciona Chile</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>24/05/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5645643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Proyecto Desarrollo Minero para Extracción de Arenas Silícicas - Yacimiento Molino El Sol:</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Minera Ramadillas Sociedad Anónima</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Proyecto de Desarrollo Minero para Extracción de Arenas Silícicas - Yacimiento Molino El Sol.</t>
+          <t>Proyecto Desarrollo Minero para Extracción de Arenas Silícicas - Yacimiento Molino El Sol:</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5244887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Planta Pirólisis</t>
+          <t>Proyecto de Desarrollo Minero para Extracción de Arenas Silícicas - Yacimiento Molino El Sol.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Härting Aromas S.A.</t>
+          <t>Minera Ramadillas Sociedad Anónima</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>14/01/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5244887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Planta Pirólisis</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Härting Aromas S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5070121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CENTRAL TERMOELÉCTRICA PIRQUENES (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S.W. Business S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Depósito de Cenizas Las Trancas (e-seia)</t>
+          <t>CENTRAL TERMOELÉCTRICA PIRQUENES (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>S.W. CONSULTING S.A.</t>
+          <t>S.W. Business S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4600</v>
+        <v>82000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Depósito de Cenizas Las Trancas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>S.W. CONSULTING S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto de Desarrollo Minero para Extracción de Arenas Silícicas Yacimiento Molino El Sol (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Minera Ramadillas Sociedad Anónima</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2849481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,10 +4024,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO ARAUCO</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>Proyecto de Desarrollo Minero para Extracción de Arenas Silícicas Yacimiento Molino El Sol (e-seia)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -4035,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Parque Eólico Arauco S.A.</t>
+          <t>Minera Ramadillas Sociedad Anónima</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>235000</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/06/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2849481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,40 +4072,36 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PARQUE EÓLICO ARAUCO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Parque Eólico Arauco S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>22</v>
+        <v>235000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/06/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4131,15 +4131,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional de Comité de Allegados Area Roja de Tubul, Villa de Pescadores César del Río (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4174,30 +4174,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Comité de Allegados y Erradicados Área Roja</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>40</v>
+        <v>6500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>16/03/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3626598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4235,17 +4235,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>24/02/2009</t>
+          <t>16/03/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3587222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3626598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Habitacional de Comité de Allegados Area Roja de Tubul, Villa de Pescadores César del Río (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4270,30 +4270,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Comité de Allegados y Erradicados Área Roja</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>24/02/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3587222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Punta Lobería, Golfo de Arauco, VIII Región, Nº Pert 206083017 (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4318,20 +4318,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/12/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Isla Santa María I, Isla Santa María, VIII Región, Pert Nº 206083018 StaMaria (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Punta Lobería, Golfo de Arauco, VIII Región, Nº Pert 206083017 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4910</v>
+        <v>950</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Isla Santa María II, Isla Santa María, VIII Región, Pert Nº 206083019 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Isla Santa María I, Isla Santa María, VIII Región, Pert Nº 206083018 StaMaria (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Isla Santa María II, Isla Santa María, VIII Región, Pert Nº 206083019 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4462,30 +4462,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>4910</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>23/12/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,25 +4515,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4571,17 +4571,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,15 +4611,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,25 +4659,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,25 +4755,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,15 +4899,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,15 +4947,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PROYECTO HABITACIONAL DE COMITE DE ALLEGADOS AREA ROJA DE TUBUL, VILLA DE PESCADORES CESAR DEL RIO (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4990,20 +4990,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Comité de Allegados y Erradicados Área Roja</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>17/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2978021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>PROYECTO HABITACIONAL DE COMITE DE ALLEGADOS AREA ROJA DE TUBUL, VILLA DE PESCADORES CESAR DEL RIO (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,20 +5038,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Comité de Allegados y Erradicados Área Roja</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>1600</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>17/06/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2978021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,25 +5091,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,25 +5139,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,25 +5187,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5230,20 +5230,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Manejo de Subproductos en Planta Arauco (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,15 +5283,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2531072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Planta de Cogeneración de Energía Eléctrica y Vapor con Biomasa en CFI Horcones Caldera de Biomasa CFI Horcones (e-seia)</t>
+          <t>Manejo de Subproductos en Planta Arauco (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>73000</v>
+        <v>400</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2531072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Planta de Cogeneración de Energía Eléctrica y Vapor con Biomasa en CFI Horcones Caldera de Biomasa CFI Horcones (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,20 +5374,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>429</v>
+        <v>73000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/11/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,25 +5427,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,25 +5475,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,20 +5518,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,36 +5652,40 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Concesión Ruta 160 tramo Tres Pinos - Acceso Norte a Coronel</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Costa Arauco S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>225000</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2439897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,14 +5700,10 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CEMENTERIO PARQUE ARAUCO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Concesión Ruta 160 tramo Tres Pinos - Acceso Norte a Coronel</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -5711,25 +5711,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NELSON ELIAS LEAL ESPINOZA</t>
+          <t>Sociedad Concesionaria Autopista Costa Arauco S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>105</v>
+        <v>225000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>09/08/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2439897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Producción Planta Terciados Arauco (e-seia)</t>
+          <t>CEMENTERIO PARQUE ARAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,25 +5759,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>NELSON ELIAS LEAL ESPINOZA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20000</v>
+        <v>105</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2254200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Aumento de Capacidad de Producción Planta Terciados Arauco (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5802,30 +5802,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>13/07/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2254200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5855,25 +5855,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROYECTO DE EXPLORACIÓN DE GAS NATURAL EN PROVINCIA DE ARAUCO, FASE II (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5898,30 +5898,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Layne Energía Chile S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>7000</v>
+        <v>80</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Deposito de Residuos Industriales Sólidos (DRIS) de la Planta Celulosa Arauco Depósito de RISes en Horcones (e-seia)</t>
+          <t>PROYECTO DE EXPLORACIÓN DE GAS NATURAL EN PROVINCIA DE ARAUCO, FASE II (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5951,15 +5951,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Layne Energía Chile S.A</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>16/04/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Deposito de Residuos Industriales Sólidos (DRIS) de la Planta Celulosa Arauco Depósito de RISes en Horcones (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5994,20 +5994,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>3800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>16/04/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,21 +6051,21 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6095,25 +6095,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,25 +6143,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,17 +6199,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6239,25 +6239,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6287,25 +6287,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,25 +6335,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,25 +6383,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,25 +6431,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,25 +6479,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,25 +6527,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Plan de mejoras en la gestión de insumos químicos y combustibles (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6570,30 +6570,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1117</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Plan de mejoras en la gestiòn de insumos quìmicos y combustibles (e-seia)</t>
+          <t>Plan de mejoras en la gestión de insumos químicos y combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,17 +6631,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>08/09/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1648660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1681421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Plan de mejoras en la gestiòn de insumos quìmicos y combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6666,30 +6666,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>80</v>
+        <v>1117</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1648660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6727,17 +6727,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,25 +6767,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,15 +6863,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,17 +6919,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Operación de la Turbina TG 24 MW con Petróleo Diesel como Combustible Alternativo (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,20 +7146,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Arauco Bioenergía S.A</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>18/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1231601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Operación de la Turbina TG 24 MW con Petróleo Diesel como Combustible Alternativo (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,20 +7194,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Arauco Bioenergía S.A</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>18/01/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1231601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SUSTITUCIÓN DE CLORO ELEMENTAL EN EL PROCESO DE CELULOSA (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,30 +7290,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4500</v>
+        <v>22</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>28/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1120740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>SUSTITUCIÓN DE CLORO ELEMENTAL EN EL PROCESO DE CELULOSA (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7338,20 +7338,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3517</v>
+        <v>4500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/11/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1120740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7535,11 +7535,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,11 +7583,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto Riego Forestal con aguas excedentes del riego de trozos Planta Trozado Horcones (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7626,20 +7626,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/06/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=902320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Proyecto Riego Forestal con aguas excedentes del riego de trozos Planta Trozado Horcones (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7674,20 +7674,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>22/06/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=902320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Plano Regulador Comuna de Arauco (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7722,30 +7722,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>26/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Plano Regulador Comuna de Arauco (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,30 +7770,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>855</v>
+        <v>70</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>26/04/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7831,17 +7831,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Arauco (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,20 +7962,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2400</v>
+        <v>1</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8023,17 +8023,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>10/08/2004</t>
+          <t>19/08/2004</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Arauco (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,30 +8058,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>10/08/2004</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TURBINA DE RESPALDO 24 MW (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,20 +8106,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Arauco Bioenergía S.A</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=381123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Proyecto Alcantarillado de Aguas Servidas Tubul (e-seia)</t>
+          <t>TURBINA DE RESPALDO 24 MW (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Arauco Bioenergía S.A</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>3700</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>11/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=375300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=381123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Proyecto Alcantarillado de Aguas Servidas Tubul (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,30 +8202,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>11/06/2004</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=375300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Estudio Proyecto de Alcantarillado de Aguas Servidas. Programa de Mejoramiento de Barrios Localidad de Tubul (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,20 +8250,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>698</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>23/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=299016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL COMITE PRO VIVIENDA MILLARAY (e-seia)</t>
+          <t>Estudio Proyecto de Alcantarillado de Aguas Servidas. Programa de Mejoramiento de Barrios Localidad de Tubul (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Benito del Carmen Ibacache Fuentes</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2500</v>
+        <v>698</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/10/2003</t>
+          <t>23/03/2004</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=299016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>conjunto habitacional comité pro vivienda villa millaray localidad de laraquete (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL COMITE PRO VIVIENDA MILLARAY (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,25 +8351,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>comité pro vivienda millaray</t>
+          <t>Benito del Carmen Ibacache Fuentes</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>2500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>15/09/2003</t>
+          <t>06/10/2003</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>conjunto habitacional comité pro vivienda villa millaray localidad de laraquete (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,30 +8394,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>comité pro vivienda millaray</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>15/09/2003</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Envío de Efluentes Sanitarios y de Proceso de Planta Terciado Arauco a Celulosa Arauco (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,20 +8442,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>04/09/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ENVÍO EFLUENTES SANITARIOS Y DE PROCESO DE PLANTA TERCIADO ARAUCO A CELULOSA ARAUCO (e-seia)</t>
+          <t>Envío de Efluentes Sanitarios y de Proceso de Planta Terciado Arauco a Celulosa Arauco (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,25 +8495,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Paneles Arauco S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>14/08/2003</t>
+          <t>04/09/2003</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE PLANTA DE PROCESAMIENTO DE NAVAJAS, NAVAJUELAS Y ALMEJAS EN TUBUL (e-seia)</t>
+          <t>ENVÍO EFLUENTES SANITARIOS Y DE PROCESO DE PLANTA TERCIADO ARAUCO A CELULOSA ARAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,25 +8543,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Elizabeth Emelina Zapata Delgado</t>
+          <t>Paneles Arauco S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>14/08/2003</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=97483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8599,17 +8599,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>15/05/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=97483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8647,17 +8647,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>15/05/2003</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mejoramiento servicio de agua potable rural localidad de Tubul Comuna de Arauco</t>
+          <t>INSTALACIÓN DE PLANTA DE PROCESAMIENTO DE NAVAJAS, NAVAJUELAS Y ALMEJAS EN TUBUL (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8687,25 +8687,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Dirección de Obras Hidráulicas, VIII Región</t>
+          <t>Elizabeth Emelina Zapata Delgado</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>08/10/2002</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Mejoramiento servicio de agua potable rural localidad de Punta Lavapié Comuna de Arauco</t>
+          <t>Mejoramiento servicio de agua potable rural localidad de Tubul Comuna de Arauco</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Mercado Municipal de Arauco</t>
+          <t>Mejoramiento servicio de agua potable rural localidad de Punta Lavapié Comuna de Arauco</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8783,25 +8783,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Dirección de Obras Hidráulicas, VIII Región</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>08/10/2002</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Intercomunal Arauco Curanilahue (Segunda Presentación)</t>
+          <t>Mercado Municipal de Arauco</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8835,11 +8835,11 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1290</v>
+        <v>916</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/06/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas Localidad de Nueva Caleta Las Peñas</t>
+          <t>Relleno Sanitario Intercomunal Arauco Curanilahue (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8883,11 +8883,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>29/05/2002</t>
+          <t>13/06/2002</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,12 +8912,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Intercomunal Arauco Curanilahue (Primera Presentación)</t>
+          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas Localidad de Nueva Caleta Las Peñas</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -8931,21 +8931,21 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>29/05/2002</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,12 +8960,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Loteo Hijuela La Chacra</t>
+          <t>Relleno Sanitario Intercomunal Arauco Curanilahue (Primera Presentación)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8975,25 +8975,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Servicio Regional de Vivienda y Urbanismo, SERVIU VIII Región</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1480</v>
+        <v>1290</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>26/04/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Construcción Anexo Liceo Politécnico Carampangue</t>
+          <t>Loteo Hijuela La Chacra</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9023,15 +9023,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Servicio Regional de Vivienda y Urbanismo, SERVIU VIII Región</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>50</v>
+        <v>1480</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>02/04/2002</t>
+          <t>26/04/2002</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Anexo Liceo Politécnico Carampangue</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,30 +9066,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>02/04/2002</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Agua Potable de Ramadillas</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,30 +9114,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>840</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Subestación de Maniobras y Transformación Horcones 66/15 Kv</t>
+          <t>Mejoramiento Sistema de Tratamiento de Agua Potable de Ramadillas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,15 +9167,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2400</v>
+        <v>840</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>29/06/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Loteo Vida Nueva de Laraquete</t>
+          <t>Subestación de Maniobras y Transformación Horcones 66/15 Kv</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9215,15 +9215,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Comité Vida Nueva</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1830</v>
+        <v>2400</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>26/10/1999</t>
+          <t>29/06/2001</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Cambio de Uso de Suelo y Loteo Rural Conjunto Habitacional de 112 Viviendas Carampangue</t>
+          <t>Loteo Vida Nueva de Laraquete</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9263,15 +9263,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Comité de Allegados y Sin Casa Villa Esperanza</t>
+          <t>Comité Vida Nueva</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>620</v>
+        <v>1830</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>23/07/1999</t>
+          <t>26/10/1999</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pro-Vivienda Mar Azul</t>
+          <t>Cambio de Uso de Suelo y Loteo Rural Conjunto Habitacional de 112 Viviendas Carampangue</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,15 +9311,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Comité Pro-Vivienda Mar Azul</t>
+          <t>Comité de Allegados y Sin Casa Villa Esperanza</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1400</v>
+        <v>620</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>15/07/1999</t>
+          <t>23/07/1999</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,12 +9344,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Planta de Producción de Derivados de Tall Oil</t>
+          <t>Conjunto Habitacional Pro-Vivienda Mar Azul</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9359,25 +9359,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Derivados de Tall Oil S.A. (DETSA)</t>
+          <t>Comité Pro-Vivienda Mar Azul</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>50000</v>
+        <v>1400</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>31/05/1999</t>
+          <t>15/07/1999</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,12 +9392,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Arauco</t>
+          <t>Planta de Producción de Derivados de Tall Oil</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9407,25 +9407,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Derivados de Tall Oil S.A. (DETSA)</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>09/02/1999</t>
+          <t>31/05/1999</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Instalación de Alcantarillado de Aguas Servidas de Laraquete</t>
+          <t>Modificación Plan Regulador Comunal de Arauco</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,21 +9459,21 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>02/12/1998</t>
+          <t>09/02/1999</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Aserradero Horcones II</t>
+          <t>Instalación de Alcantarillado de Aguas Servidas de Laraquete</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9503,15 +9503,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>25000</v>
+        <v>1120</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>21/10/1998</t>
+          <t>02/12/1998</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Loteo Turístico y Habitacional Lomas de Curaquilla</t>
+          <t>Aserradero Horcones II</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Isabel La Católica Ltda</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20/10/1998</t>
+          <t>21/10/1998</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Instalación de Alcantarillado de Aguas Servidas de Carampangue.</t>
+          <t>Loteo Turístico y Habitacional Lomas de Curaquilla</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9599,15 +9599,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Sociedad Inmobiliaria Isabel La Católica Ltda</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1770</v>
+        <v>3200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>22/05/1998</t>
+          <t>20/10/1998</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,43 +9632,91 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>Instalación de Alcantarillado de Aguas Servidas de Carampangue.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Municipalidad de Arauco</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>22/05/1998</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1292&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Arauco</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F194" t="n">
+      <c r="F195" t="n">
         <v>850000</v>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
+      <c r="I195" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>Arauco</t>
         </is>

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,16 +5614,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,11 +7295,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7308,12 +7308,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,16 +5614,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,11 +7295,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7308,12 +7308,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Arauco.xlsx
+++ b/data/Arauco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Procesos Industriales</t>
+          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Harting Aromas S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLAN CIERRE DEL VERTEDERO ACTUAL DE LA PLANTA DE CELULOSA ARAUCO</t>
+          <t>Ampliación Procesos Industriales</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Harting Aromas S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6659051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CEMENTERIO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,16 +5566,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5584,12 +5584,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CEMENTERIO (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,16 +5614,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Parque Los Boldos Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2356271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,11 +7295,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7308,12 +7308,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
